--- a/Books/MathForFinance/mathforfinance.xlsx
+++ b/Books/MathForFinance/mathforfinance.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22536" windowHeight="8688"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22536" windowHeight="8688" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ch02" sheetId="1" r:id="rId1"/>
+    <sheet name="ch03" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>interest</t>
   </si>
@@ -72,6 +73,96 @@
   </si>
   <si>
     <t>semi_val</t>
+  </si>
+  <si>
+    <t>comp_freq</t>
+  </si>
+  <si>
+    <t>period_growth</t>
+  </si>
+  <si>
+    <t>yrly_growth</t>
+  </si>
+  <si>
+    <t>amt</t>
+  </si>
+  <si>
+    <t>comp_period</t>
+  </si>
+  <si>
+    <t>ann_growth</t>
+  </si>
+  <si>
+    <t>yrs_growth</t>
+  </si>
+  <si>
+    <t>pres_val</t>
+  </si>
+  <si>
+    <t>target_earned</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>periods</t>
+  </si>
+  <si>
+    <t>continuous</t>
+  </si>
+  <si>
+    <t>periodic</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>mean1</t>
+  </si>
+  <si>
+    <t>mean2</t>
+  </si>
+  <si>
+    <t>var1</t>
+  </si>
+  <si>
+    <t>var2</t>
+  </si>
+  <si>
+    <t>rho12</t>
+  </si>
+  <si>
+    <t>c12</t>
+  </si>
+  <si>
+    <t>sd1</t>
+  </si>
+  <si>
+    <t>sd2</t>
+  </si>
+  <si>
+    <t>denom</t>
+  </si>
+  <si>
+    <t>s0</t>
+  </si>
+  <si>
+    <t>mean0</t>
+  </si>
+  <si>
+    <t>var0</t>
+  </si>
+  <si>
+    <t>mean0_alt</t>
+  </si>
+  <si>
+    <t>var0_alt</t>
   </si>
 </sst>
 </file>
@@ -188,6 +279,153 @@
     </tableColumn>
     <tableColumn id="6" name="semi_val">
       <calculatedColumnFormula>$A8*POWER(1+$C8, $D8*2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A10:D13" totalsRowShown="0">
+  <autoFilter ref="A10:D13"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="ann_int"/>
+    <tableColumn id="2" name="comp_freq"/>
+    <tableColumn id="3" name="period_growth">
+      <calculatedColumnFormula>1+($A11/$B11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="yrly_growth">
+      <calculatedColumnFormula>POWER($C11,$B11)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A17:H19" totalsRowShown="0">
+  <autoFilter ref="A17:H19"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="amt"/>
+    <tableColumn id="2" name="yrs"/>
+    <tableColumn id="3" name="ann_int"/>
+    <tableColumn id="4" name="comp_period"/>
+    <tableColumn id="5" name="period_growth">
+      <calculatedColumnFormula>1+($C18/$D18)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="ann_growth">
+      <calculatedColumnFormula>POWER($E18,$D18)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="yrs_growth">
+      <calculatedColumnFormula>POWER($F18,$B18)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="pres_val">
+      <calculatedColumnFormula>$A18/$G18</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A21:G22" totalsRowShown="0">
+  <autoFilter ref="A21:G22"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="amt"/>
+    <tableColumn id="2" name="ann_int"/>
+    <tableColumn id="3" name="target_earned"/>
+    <tableColumn id="4" name="yrs">
+      <calculatedColumnFormula>(LN($A22+$C22)-LN($A22))/$B22</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="days">
+      <calculatedColumnFormula>$D22*365.25</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="hours">
+      <calculatedColumnFormula>$E22*24</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="minutes">
+      <calculatedColumnFormula>$F22*60</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A24:E25" totalsRowShown="0">
+  <autoFilter ref="A24:E25"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="int"/>
+    <tableColumn id="2" name="periods"/>
+    <tableColumn id="3" name="continuous">
+      <calculatedColumnFormula>EXP($A25)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="periodic">
+      <calculatedColumnFormula>POWER(1+($A25)/$B25,$B25)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="diff">
+      <calculatedColumnFormula>$C25-$D25</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A27:C28" totalsRowShown="0">
+  <autoFilter ref="A27:C28"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="int">
+      <calculatedColumnFormula>0.2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="periods"/>
+    <tableColumn id="3" name="yrly_growth">
+      <calculatedColumnFormula>POWER(1+($A28/$B28),$B28)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:N2" totalsRowShown="0">
+  <autoFilter ref="A1:N2"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="mean1">
+      <calculatedColumnFormula>0.2*(-0.1)+0.4*0.2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="mean2">
+      <calculatedColumnFormula>0.2*0.05+0.4*0.3-0.05*0.4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="var1"/>
+    <tableColumn id="4" name="var2"/>
+    <tableColumn id="5" name="rho12"/>
+    <tableColumn id="6" name="sd1">
+      <calculatedColumnFormula>SQRT($C2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="sd2">
+      <calculatedColumnFormula>SQRT($D2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="c12">
+      <calculatedColumnFormula>$E2*$F2*$G2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="denom">
+      <calculatedColumnFormula>$C2+$D2-2*$H2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="s0">
+      <calculatedColumnFormula>($D2-$H2)/$I2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="mean0">
+      <calculatedColumnFormula>$J2*$A2+(1-$J2)*$B2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="var0">
+      <calculatedColumnFormula>POWER($J2,2)*$C2+POWER(1-$J2,2)*$D2+2*$J2*(1-$J2)*$H2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" name="mean0_alt">
+      <calculatedColumnFormula>($A2*$D2+$B2*$C2-($A2+$B2)*$H2)/$I2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="var0_alt">
+      <calculatedColumnFormula>($C2*$D2-$H2)/$I2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -457,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -469,8 +707,9 @@
     <col min="2" max="2" width="11.36328125" customWidth="1"/>
     <col min="3" max="3" width="15.36328125" customWidth="1"/>
     <col min="4" max="4" width="13.36328125" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" customWidth="1"/>
-    <col min="6" max="6" width="10.36328125" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" customWidth="1"/>
+    <col min="6" max="7" width="12.36328125" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -605,12 +844,403 @@
         <v>121.550625</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.15</v>
+      </c>
+      <c r="B11">
+        <v>365.25</v>
+      </c>
+      <c r="C11">
+        <f>1+($A11/$B11)</f>
+        <v>1.0004106776180699</v>
+      </c>
+      <c r="D11">
+        <f>POWER($C11,$B11)</f>
+        <v>1.1617984676246726</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.155</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <f>1+($A12/$B12)</f>
+        <v>1.0774999999999999</v>
+      </c>
+      <c r="D12">
+        <f>POWER($C12,$B12)</f>
+        <v>1.1610062499999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0.1</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <f>1+($A13/$B13)</f>
+        <v>1.0083333333333333</v>
+      </c>
+      <c r="D13">
+        <f>POWER($C13,$B13)</f>
+        <v>1.1047130674412968</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f>1000/(1.12*1.12)</f>
+        <v>797.19387755102025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>100000</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>0.05</v>
+      </c>
+      <c r="D18">
+        <v>365.25</v>
+      </c>
+      <c r="E18">
+        <f>1+($C18/$D18)</f>
+        <v>1.0001368925393566</v>
+      </c>
+      <c r="F18">
+        <f>POWER($E18,$D18)</f>
+        <v>1.051267498931219</v>
+      </c>
+      <c r="G18">
+        <f>POWER($F18,$B18)</f>
+        <v>148.36238079029107</v>
+      </c>
+      <c r="H18">
+        <f>$A18/$G18</f>
+        <v>674.0253119916506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>100000</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>0.05</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f>1+($C19/$D19)</f>
+        <v>1.05</v>
+      </c>
+      <c r="F19">
+        <f>POWER($E19,$D19)</f>
+        <v>1.05</v>
+      </c>
+      <c r="G19">
+        <f>POWER($F19,$B19)</f>
+        <v>131.50125784630362</v>
+      </c>
+      <c r="H19">
+        <f>$A19/$G19</f>
+        <v>760.44899978734998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1000000</v>
+      </c>
+      <c r="B22">
+        <v>0.1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <f>(LN($A22+$C22)-LN($A22))/$B22</f>
+        <v>9.9999950009532768E-6</v>
+      </c>
+      <c r="E22">
+        <f>$D22*365.25</f>
+        <v>3.6524981740981843E-3</v>
+      </c>
+      <c r="F22">
+        <f>$E22*24</f>
+        <v>8.7659956178356424E-2</v>
+      </c>
+      <c r="G22">
+        <f>$F22*60</f>
+        <v>5.2595973707013854</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.1</v>
+      </c>
+      <c r="B25">
+        <v>55.2</v>
+      </c>
+      <c r="C25">
+        <f>EXP($A25)</f>
+        <v>1.1051709180756477</v>
+      </c>
+      <c r="D25">
+        <f>POWER(1+($A25)/$B25,$B25)</f>
+        <v>1.1050709372739547</v>
+      </c>
+      <c r="E25">
+        <f>$C25-$D25</f>
+        <v>9.9980801693044796E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f>0.2</f>
+        <v>0.2</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <f>POWER(1+($A28/$B28),$B28)</f>
+        <v>1.2100000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
+  <tableParts count="8">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="11.36328125" customWidth="1"/>
+    <col min="14" max="14" width="10.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>0.2*(-0.1)+0.4*0.2</f>
+        <v>6.0000000000000012E-2</v>
+      </c>
+      <c r="B2">
+        <f>0.2*0.05+0.4*0.3-0.05*0.4</f>
+        <v>0.11</v>
+      </c>
+      <c r="C2">
+        <v>1.44E-2</v>
+      </c>
+      <c r="D2">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="E2">
+        <v>-0.60650000000000004</v>
+      </c>
+      <c r="F2">
+        <f>SQRT($C2)</f>
+        <v>0.12</v>
+      </c>
+      <c r="G2">
+        <f>SQRT($D2)</f>
+        <v>0.15937377450509227</v>
+      </c>
+      <c r="H2">
+        <f>$E2*$F2*$G2</f>
+        <v>-1.1599223308480615E-2</v>
+      </c>
+      <c r="I2">
+        <f>$C2+$D2-2*$H2</f>
+        <v>6.2998446616961232E-2</v>
+      </c>
+      <c r="J2">
+        <f>($D2-$H2)/$I2</f>
+        <v>0.58730373993887053</v>
+      </c>
+      <c r="K2">
+        <f>$J2*$A2+(1-$J2)*$B2</f>
+        <v>8.0634813003056471E-2</v>
+      </c>
+      <c r="L2">
+        <f>POWER($J2,2)*$C2+POWER(1-$J2,2)*$D2+2*$J2*(1-$J2)*$H2</f>
+        <v>3.6702177760959053E-3</v>
+      </c>
+      <c r="M2">
+        <f>($A2*$D2+$B2*$C2-($A2+$B2)*$H2)/$I2</f>
+        <v>8.0634813003056471E-2</v>
+      </c>
+      <c r="N2">
+        <f>($C2*$D2-$H2)/$I2</f>
+        <v>0.18992505293391237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>